--- a/ModelOutput/AggregatedMetricsExcelFormatting.xlsx
+++ b/ModelOutput/AggregatedMetricsExcelFormatting.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vicky/Documents/GitHub/Pharma-Public-Health/ModelOutput/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83853517-37C9-A548-85A9-2ED04A977F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B863BC-6A4D-AB41-B570-BE6A9D3A2DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="500" windowWidth="16560" windowHeight="16260" xr2:uid="{8A616232-6C06-0C42-8D7C-8FAC90E49601}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8A616232-6C06-0C42-8D7C-8FAC90E49601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Accuracy</t>
   </si>
@@ -56,101 +56,185 @@
     <t>Elastic Net</t>
   </si>
   <si>
-    <t>[0.623, 0.892, 0.258]</t>
-  </si>
-  <si>
-    <t>[0.884, 0.577, 0.681]</t>
-  </si>
-  <si>
-    <t>[0.989, 0.351, 0.926]</t>
-  </si>
-  <si>
-    <t>[0.731, 0.7, 0.374]</t>
-  </si>
-  <si>
     <t>KNN</t>
   </si>
   <si>
-    <t>[0.328, 0.897, 0.287]</t>
-  </si>
-  <si>
-    <t>[0.907, 0.499, 0.667]</t>
-  </si>
-  <si>
-    <t>[0.99, 0.325, 0.928]</t>
-  </si>
-  <si>
-    <t>[0.481, 0.641, 0.402]</t>
-  </si>
-  <si>
     <t>Lasso Regression</t>
   </si>
   <si>
-    <t>[0.644, 0.894, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.884, 0.569, 0.681]</t>
-  </si>
-  <si>
-    <t>[0.989, 0.349, 0.924]</t>
-  </si>
-  <si>
-    <t>[0.745, 0.695, 0.366]</t>
-  </si>
-  <si>
     <t>Ridge Regression</t>
   </si>
   <si>
-    <t>[0.644, 0.885, 0.249]</t>
-  </si>
-  <si>
-    <t>[0.884, 0.579, 0.653]</t>
-  </si>
-  <si>
-    <t>[0.989, 0.347, 0.92]</t>
-  </si>
-  <si>
-    <t>[0.745, 0.7, 0.36]</t>
-  </si>
-  <si>
     <t>Random Forest</t>
   </si>
   <si>
-    <t>[0.587, 0.896, 0.258]</t>
-  </si>
-  <si>
-    <t>[0.86, 0.584, 0.667]</t>
-  </si>
-  <si>
-    <t>[0.986, 0.357, 0.924]</t>
-  </si>
-  <si>
-    <t>[0.698, 0.708, 0.372]</t>
-  </si>
-  <si>
     <t>Decision Tree</t>
   </si>
   <si>
-    <t>[0.667, 0.891, 0.241]</t>
-  </si>
-  <si>
-    <t>[0.884, 0.574, 0.653]</t>
-  </si>
-  <si>
-    <t>[0.989, 0.349, 0.918]</t>
-  </si>
-  <si>
-    <t>[0.76, 0.698, 0.352]</t>
-  </si>
-  <si>
-    <t>Model</t>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>['0.0%', '77.0%', '0.0%']</t>
+  </si>
+  <si>
+    <t>['0.0%', '100.0%', '0.0%']</t>
+  </si>
+  <si>
+    <t>['91.4%', 'nan%', '85.6%']</t>
+  </si>
+  <si>
+    <t>['0.0%', '87.0%', '0.0%']</t>
+  </si>
+  <si>
+    <t>['62.3%', '89.2%', '25.8%']</t>
+  </si>
+  <si>
+    <t>['88.4%', '57.7%', '68.1%']</t>
+  </si>
+  <si>
+    <t>['98.9%', '35.1%', '92.6%']</t>
+  </si>
+  <si>
+    <t>['73.1%', '70.0%', '37.4%']</t>
+  </si>
+  <si>
+    <t>['32.8%', '89.7%', '28.7%']</t>
+  </si>
+  <si>
+    <t>['90.7%', '49.9%', '66.7%']</t>
+  </si>
+  <si>
+    <t>['99.0%', '32.5%', '92.8%']</t>
+  </si>
+  <si>
+    <t>['48.1%', '64.1%', '40.2%']</t>
+  </si>
+  <si>
+    <t>['64.4%', '89.4%', '25.0%']</t>
+  </si>
+  <si>
+    <t>['88.4%', '56.9%', '68.1%']</t>
+  </si>
+  <si>
+    <t>['98.9%', '34.9%', '92.4%']</t>
+  </si>
+  <si>
+    <t>['74.5%', '69.5%', '36.6%']</t>
+  </si>
+  <si>
+    <t>['64.4%', '88.5%', '24.9%']</t>
+  </si>
+  <si>
+    <t>['88.4%', '57.9%', '65.3%']</t>
+  </si>
+  <si>
+    <t>['98.9%', '34.7%', '92.0%']</t>
+  </si>
+  <si>
+    <t>['74.5%', '70.0%', '36.0%']</t>
+  </si>
+  <si>
+    <t>['58.7%', '89.6%', '25.8%']</t>
+  </si>
+  <si>
+    <t>['86.0%', '58.4%', '66.7%']</t>
+  </si>
+  <si>
+    <t>['98.6%', '35.7%', '92.4%']</t>
+  </si>
+  <si>
+    <t>['69.8%', '70.8%', '37.2%']</t>
+  </si>
+  <si>
+    <t>['66.7%', '89.1%', '24.1%']</t>
+  </si>
+  <si>
+    <t>['88.4%', '57.4%', '65.3%']</t>
+  </si>
+  <si>
+    <t>['98.9%', '34.9%', '91.8%']</t>
+  </si>
+  <si>
+    <t>['76.0%', '69.8%', '35.2%']</t>
+  </si>
+  <si>
+    <t>pase values in below table:</t>
+  </si>
+  <si>
+    <t>this table makes it easy to see largest values for class 2 for. Easy highlighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35.2%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +255,25 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +283,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -197,20 +300,265 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -540,161 +888,539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341EBE7F-5C38-6B48-AA0D-303C788139E9}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="F9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(MID(C4, FIND("~", SUBSTITUTE(C4, ",", "~", 2)) + 1, LEN(C4)), "[", ""), "]", ""), "'", "")</f>
+        <v xml:space="preserve"> 0.0%</v>
+      </c>
+      <c r="D13" s="11" t="str">
+        <f t="shared" ref="D13:F13" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(MID(D4, FIND("~", SUBSTITUTE(D4, ",", "~", 2)) + 1, LEN(D4)), "[", ""), "]", ""), "'", "")</f>
+        <v xml:space="preserve"> 0.0%</v>
+      </c>
+      <c r="E13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 85.6%</v>
+      </c>
+      <c r="F13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 0.0%</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C14" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(MID(C5, FIND("~", SUBSTITUTE(C5, ",", "~", 2)) + 1, LEN(C5)), "[", ""), "]", ""), "'", "")</f>
+        <v xml:space="preserve"> 25.8%</v>
+      </c>
+      <c r="D14" s="11" t="str">
+        <f t="shared" ref="D14:F14" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(MID(D5, FIND("~", SUBSTITUTE(D5, ",", "~", 2)) + 1, LEN(D5)), "[", ""), "]", ""), "'", "")</f>
+        <v xml:space="preserve"> 68.1%</v>
+      </c>
+      <c r="E14" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 92.6%</v>
+      </c>
+      <c r="F14" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 37.4%</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C15" s="11" t="str">
+        <f t="shared" ref="C15:F18" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(MID(C6, FIND("~", SUBSTITUTE(C6, ",", "~", 2)) + 1, LEN(C6)), "[", ""), "]", ""), "'", "")</f>
+        <v xml:space="preserve"> 28.7%</v>
+      </c>
+      <c r="D15" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 66.7%</v>
+      </c>
+      <c r="E15" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 92.8%</v>
+      </c>
+      <c r="F15" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 40.2%</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C16" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 25.0%</v>
+      </c>
+      <c r="D16" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 68.1%</v>
+      </c>
+      <c r="E16" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 92.4%</v>
+      </c>
+      <c r="F16" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 36.6%</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C17" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 24.9%</v>
+      </c>
+      <c r="D17" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(MID(D8, FIND("~", SUBSTITUTE(D8, ",", "~", 2)) + 1, LEN(D8)), "[", ""), "]", ""), "'", "")</f>
+        <v xml:space="preserve"> 65.3%</v>
+      </c>
+      <c r="E17" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 92.0%</v>
+      </c>
+      <c r="F17" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 36.0%</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C18" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 25.8%</v>
+      </c>
+      <c r="D18" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 66.7%</v>
+      </c>
+      <c r="E18" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 92.4%</v>
+      </c>
+      <c r="F18" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 37.2%</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
+      <c r="C19" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(MID(C10, FIND("~", SUBSTITUTE(C10, ",", "~", 2)) + 1, LEN(C10)), "[", ""), "]", ""), "'", "")</f>
+        <v xml:space="preserve"> 24.1%</v>
+      </c>
+      <c r="D19" s="11" t="str">
+        <f t="shared" ref="D19:F19" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(MID(D10, FIND("~", SUBSTITUTE(D10, ",", "~", 2)) + 1, LEN(D10)), "[", ""), "]", ""), "'", "")</f>
+        <v xml:space="preserve"> 65.3%</v>
+      </c>
+      <c r="E19" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> 91.8%</v>
+      </c>
+      <c r="F19" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> 35.2%</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:B10">
+    <cfRule type="top10" dxfId="3" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="top10" dxfId="2" priority="9" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C19">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C28">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:F28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:F19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>